--- a/results/mnist_training/results_naive_joint-training_mnist.xlsx
+++ b/results/mnist_training/results_naive_joint-training_mnist.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="joint-datasets_after_task1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.030503311618939</v>
+        <v>1.015314094908846</v>
       </c>
       <c r="D3">
-        <v>0.4849916696548462</v>
+        <v>0.4915474355220795</v>
       </c>
       <c r="E3">
-        <v>83.955</v>
+        <v>85.11</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.002153372676158324</v>
+        <v>0.002111403516493738</v>
       </c>
       <c r="J3">
-        <v>83.955</v>
+        <v>85.11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.630773973136593</v>
+        <v>0.6214573278849034</v>
       </c>
       <c r="D4">
-        <v>0.405291736125946</v>
+        <v>0.4267416298389435</v>
       </c>
       <c r="E4">
-        <v>85.58499999999999</v>
+        <v>87.015</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0.001869267062144354</v>
+        <v>0.001787694663065486</v>
       </c>
       <c r="J4">
-        <v>85.58499999999999</v>
+        <v>87.015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5631656334276789</v>
+        <v>0.5542708210435654</v>
       </c>
       <c r="D5">
-        <v>0.3589098751544952</v>
+        <v>0.3855285942554474</v>
       </c>
       <c r="E5">
-        <v>87.705</v>
+        <v>87.795</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.001676956402137876</v>
+        <v>0.001671081167226657</v>
       </c>
       <c r="J5">
-        <v>87.705</v>
+        <v>87.795</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -550,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5277582131861048</v>
+        <v>0.5162223602873655</v>
       </c>
       <c r="D6">
-        <v>0.35578453540802</v>
+        <v>0.347023993730545</v>
       </c>
       <c r="E6">
-        <v>88.22499999999999</v>
+        <v>88.455</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -565,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0.001588780244253576</v>
+        <v>0.001572182883857749</v>
       </c>
       <c r="J6">
-        <v>88.22499999999999</v>
+        <v>88.455</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5008931065441571</v>
+        <v>0.491414361286641</v>
       </c>
       <c r="D7">
-        <v>0.3159866631031036</v>
+        <v>0.3411555588245392</v>
       </c>
       <c r="E7">
-        <v>88.905</v>
+        <v>89.11</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0.001512651906500105</v>
+        <v>0.001487036141770659</v>
       </c>
       <c r="J7">
-        <v>88.905</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.4769959450763135</v>
+        <v>0.4655047141152351</v>
       </c>
       <c r="D8">
-        <v>0.3098374605178833</v>
+        <v>0.3380215167999268</v>
       </c>
       <c r="E8">
-        <v>89.535</v>
+        <v>89.67</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>0.001456886613892857</v>
+        <v>0.001424678029294591</v>
       </c>
       <c r="J8">
-        <v>89.535</v>
+        <v>89.67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.4603023803194298</v>
+        <v>0.4544377939430421</v>
       </c>
       <c r="D9">
-        <v>0.3189598321914673</v>
+        <v>0.3336684703826904</v>
       </c>
       <c r="E9">
-        <v>89.705</v>
+        <v>90.155</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>0.001409705502336146</v>
+        <v>0.001384824806987308</v>
       </c>
       <c r="J9">
-        <v>89.705</v>
+        <v>90.155</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4513184489411782</v>
+        <v>0.4424802191269417</v>
       </c>
       <c r="D10">
-        <v>0.2999508678913116</v>
+        <v>0.3207788169384003</v>
       </c>
       <c r="E10">
-        <v>90.19499999999999</v>
+        <v>90.255</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>0.001367372712423094</v>
+        <v>0.001348726329897181</v>
       </c>
       <c r="J10">
-        <v>90.19499999999999</v>
+        <v>90.255</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -695,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.437166278619002</v>
+        <v>0.4306785971274559</v>
       </c>
       <c r="D11">
-        <v>0.3096417188644409</v>
+        <v>0.3228722512722015</v>
       </c>
       <c r="E11">
-        <v>90.51000000000001</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -710,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.00135889649396413</v>
+        <v>0.001314192454481963</v>
       </c>
       <c r="J11">
-        <v>90.51000000000001</v>
+        <v>90.68000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -724,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4333736448733755</v>
+        <v>0.4247346638339589</v>
       </c>
       <c r="D12">
-        <v>0.2784525156021118</v>
+        <v>0.3134530186653137</v>
       </c>
       <c r="E12">
-        <v>90.625</v>
+        <v>90.84</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.00130121612312214</v>
+        <v>0.001294319033416104</v>
       </c>
       <c r="J12">
-        <v>90.625</v>
+        <v>90.84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -753,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4191924079580976</v>
+        <v>0.4159635641738051</v>
       </c>
       <c r="D13">
-        <v>0.2838031351566315</v>
+        <v>0.316488653421402</v>
       </c>
       <c r="E13">
-        <v>91.16</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>0.001266828332745354</v>
+        <v>0.001261701207174337</v>
       </c>
       <c r="J13">
-        <v>91.16</v>
+        <v>90.98999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -782,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4165193557938272</v>
+        <v>0.4097811999623485</v>
       </c>
       <c r="D14">
-        <v>0.2782951295375824</v>
+        <v>0.3075658977031708</v>
       </c>
       <c r="E14">
-        <v>90.905</v>
+        <v>91.095</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>0.001255427320080344</v>
+        <v>0.001247735364391701</v>
       </c>
       <c r="J14">
-        <v>90.905</v>
+        <v>91.095</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -811,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4096562984540984</v>
+        <v>0.4030830496191382</v>
       </c>
       <c r="D15">
-        <v>0.2769595980644226</v>
+        <v>0.3101250529289246</v>
       </c>
       <c r="E15">
-        <v>91.17</v>
+        <v>91.395</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>0.001253268053670763</v>
+        <v>0.001235743238031864</v>
       </c>
       <c r="J15">
-        <v>91.17</v>
+        <v>91.395</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -840,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4047593736588855</v>
+        <v>0.3999650908730464</v>
       </c>
       <c r="D16">
-        <v>0.2787822186946869</v>
+        <v>0.300663560628891</v>
       </c>
       <c r="E16">
-        <v>91.34</v>
+        <v>91.575</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>0.001232218738424126</v>
+        <v>0.001213396305545757</v>
       </c>
       <c r="J16">
-        <v>91.34</v>
+        <v>91.575</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -869,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3974083989162079</v>
+        <v>0.3939806901801607</v>
       </c>
       <c r="D17">
-        <v>0.2884838581085205</v>
+        <v>0.2853456735610962</v>
       </c>
       <c r="E17">
-        <v>91.395</v>
+        <v>91.33</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>0.00120776630078326</v>
+        <v>0.00119290139144141</v>
       </c>
       <c r="J17">
-        <v>91.395</v>
+        <v>91.33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -898,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3923389858166642</v>
+        <v>0.3879827733628937</v>
       </c>
       <c r="D18">
-        <v>0.2648650705814362</v>
+        <v>0.3020427823066711</v>
       </c>
       <c r="E18">
-        <v>91.655</v>
+        <v>91.55500000000001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="I18">
-        <v>0.00117478744432301</v>
+        <v>0.001177788913589029</v>
       </c>
       <c r="J18">
-        <v>91.655</v>
+        <v>91.55500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -927,13 +927,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3871672922661388</v>
+        <v>0.3878454062745647</v>
       </c>
       <c r="D19">
-        <v>0.2623450458049774</v>
+        <v>0.2924025058746338</v>
       </c>
       <c r="E19">
-        <v>91.685</v>
+        <v>91.61</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="I19">
-        <v>0.001162742743881245</v>
+        <v>0.001159678466452169</v>
       </c>
       <c r="J19">
-        <v>91.685</v>
+        <v>91.61</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -956,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3860050572427565</v>
+        <v>0.3807221245337806</v>
       </c>
       <c r="D20">
-        <v>0.2726348340511322</v>
+        <v>0.2904521226882935</v>
       </c>
       <c r="E20">
-        <v>91.845</v>
+        <v>91.88500000000001</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="I20">
-        <v>0.001153362919433857</v>
+        <v>0.001152909800200723</v>
       </c>
       <c r="J20">
-        <v>91.845</v>
+        <v>91.88500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3797678242193439</v>
+        <v>0.378092708019462</v>
       </c>
       <c r="D21">
-        <v>0.2715202867984772</v>
+        <v>0.3071305453777313</v>
       </c>
       <c r="E21">
-        <v>92</v>
+        <v>92.095</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>0.001159188014957181</v>
+        <v>0.001140092406867188</v>
       </c>
       <c r="J21">
-        <v>92</v>
+        <v>92.095</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3802418358288145</v>
+        <v>0.3723721927364601</v>
       </c>
       <c r="D22">
-        <v>0.2776045501232147</v>
+        <v>0.2974560558795929</v>
       </c>
       <c r="E22">
-        <v>92.11499999999999</v>
+        <v>92.08499999999999</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>0.001128458116027468</v>
+        <v>0.001126028405058605</v>
       </c>
       <c r="J22">
-        <v>92.11499999999999</v>
+        <v>92.08499999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1043,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3762059126652541</v>
+        <v>0.3800110408977196</v>
       </c>
       <c r="D23">
-        <v>0.2589045464992523</v>
+        <v>0.2988713383674622</v>
       </c>
       <c r="E23">
-        <v>92.22</v>
+        <v>91.69499999999999</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="I23">
-        <v>0.001103149753787147</v>
+        <v>0.001169747290216037</v>
       </c>
       <c r="J23">
-        <v>92.22</v>
+        <v>91.69499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1072,13 +1072,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3727599554547483</v>
+        <v>0.3737525993675143</v>
       </c>
       <c r="D24">
-        <v>0.2571280598640442</v>
+        <v>0.2933715283870697</v>
       </c>
       <c r="E24">
-        <v>92.18000000000001</v>
+        <v>91.86</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>0.001100645110462938</v>
+        <v>0.001161904219538701</v>
       </c>
       <c r="J24">
-        <v>92.18000000000001</v>
+        <v>91.86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1101,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3709465157557807</v>
+        <v>0.3698755489516139</v>
       </c>
       <c r="D25">
-        <v>0.2478242665529251</v>
+        <v>0.2941969633102417</v>
       </c>
       <c r="E25">
-        <v>92.425</v>
+        <v>91.715</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>23</v>
       </c>
       <c r="I25">
-        <v>0.001089874616781526</v>
+        <v>0.001155274915140762</v>
       </c>
       <c r="J25">
-        <v>92.425</v>
+        <v>91.715</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1130,13 +1130,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3698976521748732</v>
+        <v>0.3675317036140343</v>
       </c>
       <c r="D26">
-        <v>0.2538765668869019</v>
+        <v>0.292375385761261</v>
       </c>
       <c r="E26">
-        <v>92.25</v>
+        <v>91.995</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <v>0.001099699156059069</v>
+        <v>0.001150498993581277</v>
       </c>
       <c r="J26">
-        <v>92.25</v>
+        <v>91.995</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1159,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.365233841319514</v>
+        <v>0.3672150623718765</v>
       </c>
       <c r="D27">
-        <v>0.2550183236598969</v>
+        <v>0.287432849407196</v>
       </c>
       <c r="E27">
-        <v>92.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1174,10 +1174,10 @@
         <v>25</v>
       </c>
       <c r="I27">
-        <v>0.001078118368426658</v>
+        <v>0.001148534108557215</v>
       </c>
       <c r="J27">
-        <v>92.5</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1188,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3622923763795369</v>
+        <v>0.38178953697566</v>
       </c>
       <c r="D28">
-        <v>0.2554739415645599</v>
+        <v>0.2936921119689941</v>
       </c>
       <c r="E28">
-        <v>92.435</v>
+        <v>91.675</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="I28">
-        <v>0.001088780578733349</v>
+        <v>0.001178276808322698</v>
       </c>
       <c r="J28">
-        <v>92.435</v>
+        <v>91.675</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1217,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3618123235308467</v>
+        <v>0.3792383054361518</v>
       </c>
       <c r="D29">
-        <v>0.2627316415309906</v>
+        <v>0.2972906231880188</v>
       </c>
       <c r="E29">
-        <v>92.38</v>
+        <v>91.655</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="I29">
-        <v>0.001076136434426007</v>
+        <v>0.001175190215368639</v>
       </c>
       <c r="J29">
-        <v>92.38</v>
+        <v>91.655</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1246,13 +1246,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3585876015719269</v>
+        <v>0.3778147419078123</v>
       </c>
       <c r="D30">
-        <v>0.2478612065315247</v>
+        <v>0.2987631857395172</v>
       </c>
       <c r="E30">
-        <v>92.465</v>
+        <v>91.655</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="I30">
-        <v>0.001070511523975438</v>
+        <v>0.001173762683779932</v>
       </c>
       <c r="J30">
-        <v>92.465</v>
+        <v>91.655</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1275,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3543957417367496</v>
+        <v>0.3739317507298044</v>
       </c>
       <c r="D31">
-        <v>0.2471394091844559</v>
+        <v>0.2968397736549377</v>
       </c>
       <c r="E31">
-        <v>92.265</v>
+        <v>91.66</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1290,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>0.001079563579169553</v>
+        <v>0.001168318200488284</v>
       </c>
       <c r="J31">
-        <v>92.265</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1304,13 +1304,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.352871178237345</v>
+        <v>0.3719542741725759</v>
       </c>
       <c r="D32">
-        <v>0.2525614500045776</v>
+        <v>0.2977724671363831</v>
       </c>
       <c r="E32">
-        <v>92.405</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>0.001069514377752421</v>
+        <v>0.001167451728068409</v>
       </c>
       <c r="J32">
-        <v>92.405</v>
+        <v>91.68000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1333,13 +1333,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3493532772006495</v>
+        <v>0.3824908246032782</v>
       </c>
       <c r="D33">
-        <v>0.2467631548643112</v>
+        <v>0.2886776328086853</v>
       </c>
       <c r="E33">
-        <v>92.495</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>0.00106977164046948</v>
+        <v>0.001185812481533503</v>
       </c>
       <c r="J33">
-        <v>92.495</v>
+        <v>91.54000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1362,13 +1362,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3470778402581637</v>
+        <v>0.3813699954290422</v>
       </c>
       <c r="D34">
-        <v>0.2480682730674744</v>
+        <v>0.290938526391983</v>
       </c>
       <c r="E34">
-        <v>92.455</v>
+        <v>91.575</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>0.001068921254972884</v>
+        <v>0.001183568340477359</v>
       </c>
       <c r="J34">
-        <v>92.455</v>
+        <v>91.575</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1391,13 +1391,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3451233276839248</v>
+        <v>0.3823275466345387</v>
       </c>
       <c r="D35">
-        <v>0.2406797558069229</v>
+        <v>0.2921743988990784</v>
       </c>
       <c r="E35">
-        <v>92.56999999999999</v>
+        <v>91.62</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1406,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>0.001055290260485344</v>
+        <v>0.001181084162379557</v>
       </c>
       <c r="J35">
-        <v>92.56999999999999</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1420,13 +1420,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3459311554298576</v>
+        <v>0.3818072689096995</v>
       </c>
       <c r="D36">
-        <v>0.2482250779867172</v>
+        <v>0.2930486500263214</v>
       </c>
       <c r="E36">
-        <v>92.535</v>
+        <v>91.63500000000001</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1435,10 +1435,10 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>0.00105832232416069</v>
+        <v>0.001180295584726264</v>
       </c>
       <c r="J36">
-        <v>92.535</v>
+        <v>91.63500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1449,13 +1449,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3450761631205803</v>
+        <v>0.3812154673276242</v>
       </c>
       <c r="D37">
-        <v>0.2419651597738266</v>
+        <v>0.2937979400157928</v>
       </c>
       <c r="E37">
-        <v>92.535</v>
+        <v>91.66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1464,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>0.001051148664640277</v>
+        <v>0.001179288306734816</v>
       </c>
       <c r="J37">
-        <v>92.535</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1478,13 +1478,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3427407470141508</v>
+        <v>0.3875494549837654</v>
       </c>
       <c r="D38">
-        <v>0.2476239949464798</v>
+        <v>0.2860315442085266</v>
       </c>
       <c r="E38">
-        <v>92.59</v>
+        <v>91.375</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>0.001057560683312477</v>
+        <v>0.001190961829897424</v>
       </c>
       <c r="J38">
-        <v>92.59</v>
+        <v>91.375</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1507,13 +1507,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3428837018140369</v>
+        <v>0.3878712158071776</v>
       </c>
       <c r="D39">
-        <v>0.2428062111139297</v>
+        <v>0.2867408096790314</v>
       </c>
       <c r="E39">
-        <v>92.54000000000001</v>
+        <v>91.405</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>0.001051983432955967</v>
+        <v>0.001189245010349259</v>
       </c>
       <c r="J39">
-        <v>92.54000000000001</v>
+        <v>91.405</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.3452166257696677</v>
+        <v>0.3857999317634086</v>
       </c>
       <c r="D40">
-        <v>0.2448733747005463</v>
+        <v>0.2872774600982666</v>
       </c>
       <c r="E40">
-        <v>92.58</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1551,10 +1551,10 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>0.001051143568978296</v>
+        <v>0.001188002932514064</v>
       </c>
       <c r="J40">
-        <v>92.58</v>
+        <v>91.45999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1565,13 +1565,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.3476490846808645</v>
+        <v>0.3819398087929803</v>
       </c>
       <c r="D41">
-        <v>0.2468662858009338</v>
+        <v>0.2877419888973236</v>
       </c>
       <c r="E41">
-        <v>92.505</v>
+        <v>91.485</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1580,10 +1580,10 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>0.001058379962046456</v>
+        <v>0.00118685124819749</v>
       </c>
       <c r="J41">
-        <v>92.505</v>
+        <v>91.485</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1594,13 +1594,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.3439244697607419</v>
+        <v>0.3842184259517364</v>
       </c>
       <c r="D42">
-        <v>0.2434474527835846</v>
+        <v>0.2884418368339539</v>
       </c>
       <c r="E42">
-        <v>92.565</v>
+        <v>91.5</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1609,387 +1609,10 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>0.001055007029057379</v>
+        <v>0.001185963048883423</v>
       </c>
       <c r="J42">
-        <v>92.565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.3433966851095127</v>
-      </c>
-      <c r="D43">
-        <v>0.2444049865007401</v>
-      </c>
-      <c r="E43">
-        <v>92.55500000000001</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>41</v>
-      </c>
-      <c r="I43">
-        <v>0.001052533403683265</v>
-      </c>
-      <c r="J43">
-        <v>92.55500000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.3404723728737967</v>
-      </c>
-      <c r="D44">
-        <v>0.2451513409614563</v>
-      </c>
-      <c r="E44">
-        <v>92.515</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>42</v>
-      </c>
-      <c r="I44">
-        <v>0.001053114658561026</v>
-      </c>
-      <c r="J44">
-        <v>92.515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.3421546246651218</v>
-      </c>
-      <c r="D45">
-        <v>0.244878962635994</v>
-      </c>
-      <c r="E45">
-        <v>92.59</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>43</v>
-      </c>
-      <c r="I45">
-        <v>0.001051776302481085</v>
-      </c>
-      <c r="J45">
-        <v>92.59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.3485421782393686</v>
-      </c>
-      <c r="D46">
-        <v>0.2420367449522018</v>
-      </c>
-      <c r="E46">
-        <v>92.55</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>44</v>
-      </c>
-      <c r="I46">
-        <v>0.001054960022545492</v>
-      </c>
-      <c r="J46">
-        <v>92.55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.3421282261759291</v>
-      </c>
-      <c r="D47">
-        <v>0.2427975684404373</v>
-      </c>
-      <c r="E47">
-        <v>92.54000000000001</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>45</v>
-      </c>
-      <c r="I47">
-        <v>0.00105500980845718</v>
-      </c>
-      <c r="J47">
-        <v>92.54000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.3448304962335724</v>
-      </c>
-      <c r="D48">
-        <v>0.2430503517389297</v>
-      </c>
-      <c r="E48">
-        <v>92.55</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>46</v>
-      </c>
-      <c r="I48">
-        <v>0.001054756492525121</v>
-      </c>
-      <c r="J48">
-        <v>92.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.3434731673716703</v>
-      </c>
-      <c r="D49">
-        <v>0.2441621720790863</v>
-      </c>
-      <c r="E49">
-        <v>92.56</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>47</v>
-      </c>
-      <c r="I49">
-        <v>0.001054622438001388</v>
-      </c>
-      <c r="J49">
-        <v>92.56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.3444637853235554</v>
-      </c>
-      <c r="D50">
-        <v>0.2446257025003433</v>
-      </c>
-      <c r="E50">
-        <v>92.55500000000001</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>48</v>
-      </c>
-      <c r="I50">
-        <v>0.001054304681101712</v>
-      </c>
-      <c r="J50">
-        <v>92.55500000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.3403544502584683</v>
-      </c>
-      <c r="D51">
-        <v>0.2410885393619537</v>
-      </c>
-      <c r="E51">
-        <v>92.56</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>49</v>
-      </c>
-      <c r="I51">
-        <v>0.001055239295736828</v>
-      </c>
-      <c r="J51">
-        <v>92.56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.3453557260943972</v>
-      </c>
-      <c r="D52">
-        <v>0.2417319267988205</v>
-      </c>
-      <c r="E52">
-        <v>92.56</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
-      <c r="I52">
-        <v>0.001055080170761721</v>
-      </c>
-      <c r="J52">
-        <v>92.56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.3461099102570736</v>
-      </c>
-      <c r="D53">
-        <v>0.2422004640102386</v>
-      </c>
-      <c r="E53">
-        <v>92.55</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>51</v>
-      </c>
-      <c r="I53">
-        <v>0.001054983299932428</v>
-      </c>
-      <c r="J53">
-        <v>92.55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.3444896584908433</v>
-      </c>
-      <c r="D54">
-        <v>0.2424159497022629</v>
-      </c>
-      <c r="E54">
-        <v>92.535</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>52</v>
-      </c>
-      <c r="I54">
-        <v>0.001054923187045642</v>
-      </c>
-      <c r="J54">
-        <v>92.535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.3460817422612084</v>
-      </c>
-      <c r="D55">
-        <v>0.2425663024187088</v>
-      </c>
-      <c r="E55">
-        <v>92.545</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>53</v>
-      </c>
-      <c r="I55">
-        <v>0.001054787836343166</v>
-      </c>
-      <c r="J55">
-        <v>92.545</v>
+        <v>91.5</v>
       </c>
     </row>
   </sheetData>
